--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/TEXAS_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/TEXAS_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2035"/>
+  <dimension ref="A1:D2029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C41">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C44">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C46">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C55">
@@ -1129,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="D57">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="58">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C60">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C83">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C86">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C91">
@@ -1649,7 +1649,7 @@
         <v>16</v>
       </c>
       <c r="D97">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="98">
@@ -1668,7 +1668,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C99">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C100">
@@ -2213,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="141">
@@ -2258,7 +2258,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C144">
@@ -2356,7 +2356,7 @@
         <v>16</v>
       </c>
       <c r="D151">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="152">
@@ -2401,14 +2401,14 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C155">
         <v>16</v>
       </c>
       <c r="D155">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="156">
@@ -2440,14 +2440,14 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C158">
         <v>165</v>
       </c>
       <c r="D158">
-        <v>0.0009488866396761133</v>
+        <v>0.0009488866396761132</v>
       </c>
     </row>
     <row r="159">
@@ -2778,7 +2778,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C184">
@@ -2791,7 +2791,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C185">
@@ -2804,7 +2804,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C186">
@@ -2908,7 +2908,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C194">
@@ -2985,7 +2985,7 @@
         <v>16</v>
       </c>
       <c r="D199">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="200">
@@ -3167,7 +3167,7 @@
         <v>1643</v>
       </c>
       <c r="D213">
-        <v>0.009448610599926389</v>
+        <v>0.009448610599926388</v>
       </c>
     </row>
     <row r="214">
@@ -3342,7 +3342,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C227">
@@ -3568,7 +3568,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C244">
@@ -3594,7 +3594,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C250">
@@ -3851,7 +3851,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C265">
@@ -4033,7 +4033,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C279">
@@ -4085,7 +4085,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C283">
@@ -4176,7 +4176,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C290">
@@ -4189,7 +4189,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C291">
@@ -4202,7 +4202,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C292">
@@ -4215,7 +4215,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C293">
@@ -4345,12 +4345,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C303">
@@ -4370,7 +4370,7 @@
         <v>16</v>
       </c>
       <c r="D304">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="305">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C306">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C307">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C308">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C314">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C322">
@@ -4649,7 +4649,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C326">
@@ -4740,7 +4740,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C333">
@@ -4844,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C341">
@@ -4857,7 +4857,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C342">
@@ -4942,7 +4942,7 @@
         <v>16</v>
       </c>
       <c r="D348">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="349">
@@ -5065,7 +5065,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5221,7 +5221,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C370">
@@ -5234,7 +5234,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C371">
@@ -5247,7 +5247,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C372">
@@ -5273,7 +5273,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C374">
@@ -5299,7 +5299,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C376">
@@ -5429,7 +5429,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C386">
@@ -5442,7 +5442,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C387">
@@ -5611,7 +5611,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C400">
@@ -5689,7 +5689,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C406">
@@ -5702,7 +5702,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C407">
@@ -5715,7 +5715,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C408">
@@ -5728,7 +5728,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C409">
@@ -5826,7 +5826,7 @@
         <v>16</v>
       </c>
       <c r="D416">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="417">
@@ -5902,7 +5902,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C422">
@@ -5915,7 +5915,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C423">
@@ -5928,7 +5928,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C424">
@@ -6032,7 +6032,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C432">
@@ -6084,7 +6084,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C436">
@@ -6188,7 +6188,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C444">
@@ -6240,7 +6240,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C448">
@@ -6260,13 +6260,13 @@
         <v>1578</v>
       </c>
       <c r="D449">
-        <v>0.009074806772175193</v>
+        <v>0.009074806772175191</v>
       </c>
     </row>
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C450">
@@ -6292,14 +6292,14 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C452">
         <v>1721</v>
       </c>
       <c r="D452">
-        <v>0.009897175193227825</v>
+        <v>0.009897175193227824</v>
       </c>
     </row>
     <row r="453">
@@ -6318,7 +6318,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C454">
@@ -6344,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C456">
@@ -6409,7 +6409,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C461">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C467">
@@ -6531,7 +6531,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C470">
@@ -6544,7 +6544,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C471">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C475">
@@ -6609,7 +6609,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C476">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C478">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C479">
@@ -6687,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C482">
@@ -6700,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C483">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C484">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C485">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C490">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C491">
@@ -6856,7 +6856,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C495">
@@ -6869,7 +6869,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C496">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C502">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C503">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C505">
@@ -6999,7 +6999,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C506">
@@ -7025,7 +7025,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C508">
@@ -7064,7 +7064,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C511">
@@ -7233,7 +7233,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C524">
@@ -7259,14 +7259,14 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C526">
         <v>164</v>
       </c>
       <c r="D526">
-        <v>0.0009431358115568641</v>
+        <v>0.000943135811556864</v>
       </c>
     </row>
     <row r="527">
@@ -7285,7 +7285,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C528">
@@ -7311,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C530">
@@ -7363,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C534">
@@ -7376,7 +7376,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C535">
@@ -7537,7 +7537,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C547">
@@ -7628,7 +7628,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C554">
@@ -7641,7 +7641,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C555">
@@ -7719,7 +7719,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C561">
@@ -7791,13 +7791,13 @@
         <v>16</v>
       </c>
       <c r="D566">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C567">
@@ -7849,7 +7849,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C571">
@@ -7888,7 +7888,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C574">
@@ -7979,7 +7979,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C581">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C582">
@@ -8005,7 +8005,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C583">
@@ -8018,7 +8018,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C584">
@@ -8031,14 +8031,14 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C585">
         <v>16</v>
       </c>
       <c r="D585">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="586">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C587">
@@ -8070,7 +8070,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8083,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C589">
@@ -8122,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C592">
@@ -8155,7 +8155,7 @@
         <v>16</v>
       </c>
       <c r="D594">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="595">
@@ -8200,7 +8200,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C598">
@@ -8213,7 +8213,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C599">
@@ -8265,7 +8265,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C603">
@@ -8291,7 +8291,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C605">
@@ -8304,7 +8304,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C606">
@@ -8343,7 +8343,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C609">
@@ -8460,7 +8460,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C618">
@@ -8473,7 +8473,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C619">
@@ -8486,7 +8486,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C620">
@@ -8538,7 +8538,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C624">
@@ -8551,7 +8551,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C625">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C630">
@@ -8634,14 +8634,14 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C631">
         <v>16</v>
       </c>
       <c r="D631">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="632">
@@ -8699,7 +8699,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C636">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C639">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C641">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C653">
@@ -8933,7 +8933,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C654">
@@ -9037,7 +9037,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C662">
@@ -9128,7 +9128,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C669">
@@ -9141,7 +9141,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C670">
@@ -9154,14 +9154,14 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C671">
         <v>16</v>
       </c>
       <c r="D671">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="672">
@@ -9206,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C675">
@@ -9278,13 +9278,13 @@
         <v>16</v>
       </c>
       <c r="D680">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C681">
@@ -9297,7 +9297,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C682">
@@ -9401,7 +9401,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C690">
@@ -9466,7 +9466,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C695">
@@ -9479,7 +9479,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C696">
@@ -9505,7 +9505,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C698">
@@ -9518,7 +9518,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C699">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C702">
@@ -9583,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C704">
@@ -9596,7 +9596,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C705">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C706">
@@ -9622,7 +9622,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C707">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C710">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C711">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C714">
@@ -9759,13 +9759,13 @@
         <v>167</v>
       </c>
       <c r="D717">
-        <v>0.0009603882959146117</v>
+        <v>0.0009603882959146116</v>
       </c>
     </row>
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C718">
@@ -9778,7 +9778,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C719">
@@ -9817,7 +9817,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C722">
@@ -9830,7 +9830,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C723">
@@ -9986,7 +9986,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C735">
@@ -9999,7 +9999,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C736">
@@ -10012,7 +10012,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C737">
@@ -10025,14 +10025,14 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C738">
         <v>16</v>
       </c>
       <c r="D738">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="739">
@@ -10090,7 +10090,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C743">
@@ -10103,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C744">
@@ -10142,7 +10142,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C747">
@@ -10155,7 +10155,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C748">
@@ -10168,7 +10168,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C749">
@@ -10511,7 +10511,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C775">
@@ -10537,7 +10537,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C777">
@@ -11408,7 +11408,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C844">
@@ -11751,7 +11751,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C870">
@@ -11855,7 +11855,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C878">
@@ -11907,7 +11907,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C882">
@@ -11966,7 +11966,7 @@
         <v>16</v>
       </c>
       <c r="D886">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="887">
@@ -11985,7 +11985,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C888">
@@ -11998,7 +11998,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C889">
@@ -12102,7 +12102,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C897">
@@ -12159,7 +12159,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C901">
@@ -12172,7 +12172,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C902">
@@ -12211,7 +12211,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C905">
@@ -12302,7 +12302,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C912">
@@ -12541,7 +12541,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C930">
@@ -12626,7 +12626,7 @@
         <v>16</v>
       </c>
       <c r="D936">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="937">
@@ -12678,7 +12678,7 @@
         <v>16</v>
       </c>
       <c r="D940">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="941">
@@ -12775,7 +12775,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C948">
@@ -12866,7 +12866,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C955">
@@ -12951,7 +12951,7 @@
         <v>16</v>
       </c>
       <c r="D961">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="962">
@@ -12983,7 +12983,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C964">
@@ -13092,7 +13092,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C972">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C978">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C983">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C984">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C987">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C989">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C991">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C993">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C994">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C996">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C997">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C998">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C999">
@@ -13469,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1001">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1002">
@@ -13495,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1003">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1012">
@@ -13651,7 +13651,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1015">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1016">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1019">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1020">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1021">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1022">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1024">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1037">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1051">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1054">
@@ -14197,7 +14197,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1057">
@@ -14444,7 +14444,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1076">
@@ -14639,7 +14639,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1091">
@@ -14652,7 +14652,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1092">
@@ -14665,7 +14665,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1093">
@@ -15016,7 +15016,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1120">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1133">
@@ -15211,7 +15211,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1135">
@@ -15367,7 +15367,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1147">
@@ -15432,7 +15432,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1152">
@@ -15640,7 +15640,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1168">
@@ -15653,7 +15653,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1169">
@@ -15666,7 +15666,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1170">
@@ -15770,7 +15770,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1178">
@@ -15887,7 +15887,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1187">
@@ -15939,7 +15939,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1191">
@@ -15952,7 +15952,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1192">
@@ -15978,7 +15978,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1194">
@@ -16121,7 +16121,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1205">
@@ -16407,7 +16407,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1227">
@@ -16797,7 +16797,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1257">
@@ -17018,7 +17018,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1274">
@@ -17031,7 +17031,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1275">
@@ -17044,7 +17044,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1276">
@@ -17057,7 +17057,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1277">
@@ -17070,7 +17070,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1278">
@@ -17083,7 +17083,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1279">
@@ -17096,7 +17096,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1280">
@@ -17109,7 +17109,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1281">
@@ -17122,7 +17122,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1282">
@@ -17148,7 +17148,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1284">
@@ -17161,7 +17161,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1285">
@@ -17174,7 +17174,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1286">
@@ -17187,7 +17187,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1287">
@@ -17226,7 +17226,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1290">
@@ -17239,7 +17239,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1291">
@@ -17252,7 +17252,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1292">
@@ -17278,7 +17278,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1294">
@@ -17304,7 +17304,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1296">
@@ -17342,7 +17342,7 @@
         <v>16</v>
       </c>
       <c r="D1298">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1299">
@@ -17621,7 +17621,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1320">
@@ -17673,7 +17673,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1324">
@@ -17803,7 +17803,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1334">
@@ -17946,7 +17946,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1345">
@@ -17959,7 +17959,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1346">
@@ -18044,7 +18044,7 @@
         <v>16</v>
       </c>
       <c r="D1352">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1353">
@@ -18167,7 +18167,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1362">
@@ -18180,7 +18180,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1363">
@@ -18245,7 +18245,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1368">
@@ -18271,7 +18271,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1370">
@@ -18323,14 +18323,14 @@
     <row r="1374">
       <c r="B1374" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1374">
         <v>167</v>
       </c>
       <c r="D1374">
-        <v>0.0009603882959146117</v>
+        <v>0.0009603882959146116</v>
       </c>
     </row>
     <row r="1375">
@@ -18453,7 +18453,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1384">
@@ -18557,7 +18557,7 @@
     <row r="1392">
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1392">
@@ -18674,7 +18674,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1401">
@@ -18843,7 +18843,7 @@
     <row r="1414">
       <c r="B1414" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1414">
@@ -18895,7 +18895,7 @@
     <row r="1418">
       <c r="B1418" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1418">
@@ -18908,7 +18908,7 @@
     <row r="1419">
       <c r="B1419" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1419">
@@ -18999,7 +18999,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1426">
@@ -19103,7 +19103,7 @@
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1434">
@@ -19116,7 +19116,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1435">
@@ -19129,7 +19129,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1436">
@@ -19194,7 +19194,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1441">
@@ -19220,7 +19220,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1443">
@@ -19233,7 +19233,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1444">
@@ -19246,7 +19246,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1445">
@@ -19311,7 +19311,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1450">
@@ -19467,7 +19467,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1462">
@@ -19493,7 +19493,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1464">
@@ -19545,7 +19545,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1468">
@@ -19623,7 +19623,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1474">
@@ -19727,7 +19727,7 @@
     <row r="1482">
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1482">
@@ -19849,7 +19849,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1491">
@@ -19875,7 +19875,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1493">
@@ -19953,7 +19953,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1499">
@@ -19966,7 +19966,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1500">
@@ -20005,7 +20005,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1503">
@@ -20044,7 +20044,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1506">
@@ -20243,13 +20243,13 @@
         <v>164</v>
       </c>
       <c r="D1520">
-        <v>0.0009431358115568641</v>
+        <v>0.000943135811556864</v>
       </c>
     </row>
     <row r="1521">
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1521">
@@ -20262,7 +20262,7 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1522">
@@ -20327,7 +20327,7 @@
     <row r="1527">
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1527">
@@ -20353,7 +20353,7 @@
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1529">
@@ -20451,7 +20451,7 @@
         <v>16</v>
       </c>
       <c r="D1536">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1537">
@@ -20496,7 +20496,7 @@
     <row r="1540">
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1540">
@@ -20574,7 +20574,7 @@
     <row r="1546">
       <c r="B1546" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1546">
@@ -20652,7 +20652,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1552">
@@ -20678,7 +20678,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1554">
@@ -20782,7 +20782,7 @@
     <row r="1562">
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1562">
@@ -20834,7 +20834,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1566">
@@ -20847,7 +20847,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1567">
@@ -20860,7 +20860,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1568">
@@ -20873,7 +20873,7 @@
     <row r="1569">
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1569">
@@ -20886,7 +20886,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1570">
@@ -20899,7 +20899,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1571">
@@ -21106,7 +21106,7 @@
         <v>16</v>
       </c>
       <c r="D1586">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1587">
@@ -21520,7 +21520,7 @@
     <row r="1618">
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1618">
@@ -21611,7 +21611,7 @@
     <row r="1625">
       <c r="B1625" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1625">
@@ -21772,7 +21772,7 @@
     <row r="1637">
       <c r="B1637" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1637">
@@ -22252,7 +22252,7 @@
         <v>16</v>
       </c>
       <c r="D1673">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1674">
@@ -22362,7 +22362,7 @@
     <row r="1682">
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1682">
@@ -22471,7 +22471,7 @@
       </c>
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1690">
@@ -22497,7 +22497,7 @@
     <row r="1692">
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1692">
@@ -22510,7 +22510,7 @@
     <row r="1693">
       <c r="B1693" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1693">
@@ -22575,7 +22575,7 @@
     <row r="1698">
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1698">
@@ -22653,7 +22653,7 @@
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1704">
@@ -22692,7 +22692,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1707">
@@ -22705,7 +22705,7 @@
     <row r="1708">
       <c r="B1708" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1708">
@@ -22744,7 +22744,7 @@
     <row r="1711">
       <c r="B1711" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1711">
@@ -22783,7 +22783,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1714">
@@ -22796,7 +22796,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1715">
@@ -22848,7 +22848,7 @@
     <row r="1719">
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1719">
@@ -22887,7 +22887,7 @@
     <row r="1722">
       <c r="B1722" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1722">
@@ -22998,7 +22998,7 @@
         <v>16</v>
       </c>
       <c r="D1730">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1731">
@@ -23043,7 +23043,7 @@
     <row r="1734">
       <c r="B1734" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1734">
@@ -23178,7 +23178,7 @@
     <row r="1744">
       <c r="B1744" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1744">
@@ -23230,7 +23230,7 @@
     <row r="1748">
       <c r="B1748" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1748">
@@ -23386,7 +23386,7 @@
     <row r="1760">
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1760">
@@ -23412,7 +23412,7 @@
     <row r="1762">
       <c r="B1762" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1762">
@@ -23464,7 +23464,7 @@
     <row r="1766">
       <c r="B1766" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1766">
@@ -23490,7 +23490,7 @@
     <row r="1768">
       <c r="B1768" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1768">
@@ -23594,7 +23594,7 @@
     <row r="1776">
       <c r="B1776" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1776">
@@ -23763,7 +23763,7 @@
     <row r="1789">
       <c r="B1789" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1789">
@@ -23776,7 +23776,7 @@
     <row r="1790">
       <c r="B1790" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1790">
@@ -23822,7 +23822,7 @@
         <v>16</v>
       </c>
       <c r="D1793">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1794">
@@ -23997,7 +23997,7 @@
     <row r="1807">
       <c r="B1807" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1807">
@@ -24010,7 +24010,7 @@
     <row r="1808">
       <c r="B1808" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1808">
@@ -24062,7 +24062,7 @@
     <row r="1812">
       <c r="B1812" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1812">
@@ -24075,7 +24075,7 @@
     <row r="1813">
       <c r="B1813" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1813">
@@ -24088,7 +24088,7 @@
     <row r="1814">
       <c r="B1814" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1814">
@@ -24101,7 +24101,7 @@
     <row r="1815">
       <c r="B1815" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1815">
@@ -24244,7 +24244,7 @@
     <row r="1826">
       <c r="B1826" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1826">
@@ -24283,7 +24283,7 @@
     <row r="1829">
       <c r="B1829" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1829">
@@ -24322,7 +24322,7 @@
     <row r="1832">
       <c r="B1832" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1832">
@@ -24335,7 +24335,7 @@
     <row r="1833">
       <c r="B1833" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1833">
@@ -24387,7 +24387,7 @@
     <row r="1837">
       <c r="B1837" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1837">
@@ -24426,7 +24426,7 @@
     <row r="1840">
       <c r="B1840" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1840">
@@ -24491,7 +24491,7 @@
     <row r="1845">
       <c r="B1845" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1845">
@@ -24634,7 +24634,7 @@
     <row r="1856">
       <c r="B1856" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1856">
@@ -24686,7 +24686,7 @@
     <row r="1860">
       <c r="B1860" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1860">
@@ -24699,7 +24699,7 @@
     <row r="1861">
       <c r="B1861" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1861">
@@ -24751,7 +24751,7 @@
     <row r="1865">
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1865">
@@ -24784,7 +24784,7 @@
         <v>16</v>
       </c>
       <c r="D1867">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1868">
@@ -24823,7 +24823,7 @@
         <v>16</v>
       </c>
       <c r="D1870">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1871">
@@ -24894,7 +24894,7 @@
     <row r="1876">
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1876">
@@ -24946,7 +24946,7 @@
     <row r="1880">
       <c r="B1880" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1880">
@@ -25050,7 +25050,7 @@
     <row r="1888">
       <c r="B1888" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1888">
@@ -25336,7 +25336,7 @@
     <row r="1910">
       <c r="B1910" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1910">
@@ -25518,7 +25518,7 @@
     <row r="1924">
       <c r="B1924" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1924">
@@ -25661,7 +25661,7 @@
     <row r="1935">
       <c r="B1935" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1935">
@@ -25674,14 +25674,14 @@
     <row r="1936">
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1936">
         <v>16</v>
       </c>
       <c r="D1936">
-        <v>9.201324990798675E-05</v>
+        <v>9.201324990798676E-05</v>
       </c>
     </row>
     <row r="1937">
@@ -26141,7 +26141,7 @@
         <v>164</v>
       </c>
       <c r="D1971">
-        <v>0.0009431358115568641</v>
+        <v>0.000943135811556864</v>
       </c>
     </row>
     <row r="1972">
@@ -26217,7 +26217,7 @@
     <row r="1977">
       <c r="B1977" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1977">
@@ -26243,7 +26243,7 @@
     <row r="1979">
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1979">
@@ -26269,7 +26269,7 @@
     <row r="1981">
       <c r="B1981" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1981">
@@ -26412,7 +26412,7 @@
     <row r="1992">
       <c r="B1992" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1992">
@@ -26503,7 +26503,7 @@
     <row r="1999">
       <c r="B1999" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1999">
@@ -26568,7 +26568,7 @@
     <row r="2004">
       <c r="B2004" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2004">
@@ -26581,7 +26581,7 @@
     <row r="2005">
       <c r="B2005" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2005">
@@ -26594,7 +26594,7 @@
     <row r="2006">
       <c r="B2006" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2006">
@@ -26724,7 +26724,7 @@
     <row r="2016">
       <c r="B2016" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2016">
@@ -26737,7 +26737,7 @@
     <row r="2017">
       <c r="B2017" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2017">
@@ -26763,7 +26763,7 @@
     <row r="2019">
       <c r="B2019" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2019">
@@ -26802,7 +26802,7 @@
     <row r="2022">
       <c r="B2022" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2022">
@@ -26848,7 +26848,7 @@
         <v>160</v>
       </c>
       <c r="D2025">
-        <v>0.0009201324990798675</v>
+        <v>0.0009201324990798676</v>
       </c>
     </row>
     <row r="2026">
@@ -26901,41 +26901,6 @@
       </c>
       <c r="D2029">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
